--- a/natmiOut/OldD4/LR-pairs_lrc2p/Chad-Itga2.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Chad-Itga2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -85,16 +88,13 @@
     <t>M2</t>
   </si>
   <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Chad</t>
   </si>
   <si>
     <t>Itga2</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>1.29193265035414</v>
+        <v>0.295074</v>
       </c>
       <c r="H2">
-        <v>1.29193265035414</v>
+        <v>0.885222</v>
       </c>
       <c r="I2">
-        <v>0.3992334994134776</v>
+        <v>0.05545958198347656</v>
       </c>
       <c r="J2">
-        <v>0.3992334994134776</v>
+        <v>0.05737883381650184</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.65732958697911</v>
+        <v>3.042935333333334</v>
       </c>
       <c r="N2">
-        <v>1.65732958697911</v>
+        <v>9.128806000000001</v>
       </c>
       <c r="O2">
-        <v>0.3967744199406166</v>
+        <v>0.5356624298519768</v>
       </c>
       <c r="P2">
-        <v>0.3967744199406166</v>
+        <v>0.5831288282815508</v>
       </c>
       <c r="Q2">
-        <v>2.141158205816254</v>
+        <v>0.8978911005480001</v>
       </c>
       <c r="R2">
-        <v>2.141158205816254</v>
+        <v>8.081019904932001</v>
       </c>
       <c r="S2">
-        <v>0.1584056401506451</v>
+        <v>0.02970761444384397</v>
       </c>
       <c r="T2">
-        <v>0.1584056401506451</v>
+        <v>0.03345925213157854</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>1.29193265035414</v>
+        <v>0.295074</v>
       </c>
       <c r="H3">
-        <v>1.29193265035414</v>
+        <v>0.885222</v>
       </c>
       <c r="I3">
-        <v>0.3992334994134776</v>
+        <v>0.05545958198347656</v>
       </c>
       <c r="J3">
-        <v>0.3992334994134776</v>
+        <v>0.05737883381650184</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.01028305160397</v>
+        <v>1.067915666666667</v>
       </c>
       <c r="N3">
-        <v>1.01028305160397</v>
+        <v>3.203747</v>
       </c>
       <c r="O3">
-        <v>0.2418676857791798</v>
+        <v>0.1879902916822836</v>
       </c>
       <c r="P3">
-        <v>0.2418676857791798</v>
+        <v>0.2046485853922773</v>
       </c>
       <c r="Q3">
-        <v>1.305217660466585</v>
+        <v>0.315114147426</v>
       </c>
       <c r="R3">
-        <v>1.305217660466585</v>
+        <v>2.836027326834</v>
       </c>
       <c r="S3">
-        <v>0.09656168258866138</v>
+        <v>0.01042586299365128</v>
       </c>
       <c r="T3">
-        <v>0.09656168258866138</v>
+        <v>0.01174249717200566</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,10 +649,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
@@ -661,49 +661,49 @@
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>1.29193265035414</v>
+        <v>0.295074</v>
       </c>
       <c r="H4">
-        <v>1.29193265035414</v>
+        <v>0.885222</v>
       </c>
       <c r="I4">
-        <v>0.3992334994134776</v>
+        <v>0.05545958198347656</v>
       </c>
       <c r="J4">
-        <v>0.3992334994134776</v>
+        <v>0.05737883381650184</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.155290287716967</v>
+        <v>0.02258333333333333</v>
       </c>
       <c r="N4">
-        <v>0.155290287716967</v>
+        <v>0.06775</v>
       </c>
       <c r="O4">
-        <v>0.03717740533650878</v>
+        <v>0.003975451950942043</v>
       </c>
       <c r="P4">
-        <v>0.03717740533650878</v>
+        <v>0.004327726771285868</v>
       </c>
       <c r="Q4">
-        <v>0.2006245929844381</v>
+        <v>0.0066637545</v>
       </c>
       <c r="R4">
-        <v>0.2006245929844381</v>
+        <v>0.0599737905</v>
       </c>
       <c r="S4">
-        <v>0.0148424656316077</v>
+        <v>0.0002204769033946421</v>
       </c>
       <c r="T4">
-        <v>0.0148424656316077</v>
+        <v>0.0002483199152128379</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,123 +711,123 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>1.29193265035414</v>
+        <v>0.295074</v>
       </c>
       <c r="H5">
-        <v>1.29193265035414</v>
+        <v>0.885222</v>
       </c>
       <c r="I5">
-        <v>0.3992334994134776</v>
+        <v>0.05545958198347656</v>
       </c>
       <c r="J5">
-        <v>0.3992334994134776</v>
+        <v>0.05737883381650184</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.35410421853342</v>
+        <v>0.160044</v>
       </c>
       <c r="N5">
-        <v>1.35410421853342</v>
+        <v>0.480132</v>
       </c>
       <c r="O5">
-        <v>0.3241804889436948</v>
+        <v>0.02817330916767092</v>
       </c>
       <c r="P5">
-        <v>0.3241804889436948</v>
+        <v>0.03066981712400039</v>
       </c>
       <c r="Q5">
-        <v>1.749411451905603</v>
+        <v>0.047224823256</v>
       </c>
       <c r="R5">
-        <v>1.749411451905603</v>
+        <v>0.425023409304</v>
       </c>
       <c r="S5">
-        <v>0.1294237110425635</v>
+        <v>0.001562479949530277</v>
       </c>
       <c r="T5">
-        <v>0.1294237110425635</v>
+        <v>0.001759798339940521</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
-        <v>25</v>
-      </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.78120065968861</v>
+        <v>0.295074</v>
       </c>
       <c r="H6">
-        <v>0.78120065968861</v>
+        <v>0.885222</v>
       </c>
       <c r="I6">
-        <v>0.2414069131437379</v>
+        <v>0.05545958198347656</v>
       </c>
       <c r="J6">
-        <v>0.2414069131437379</v>
+        <v>0.05737883381650184</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.65732958697911</v>
+        <v>1.3872175</v>
       </c>
       <c r="N6">
-        <v>1.65732958697911</v>
+        <v>2.774435</v>
       </c>
       <c r="O6">
-        <v>0.3967744199406166</v>
+        <v>0.2441985173471266</v>
       </c>
       <c r="P6">
-        <v>0.3967744199406166</v>
+        <v>0.1772250424308857</v>
       </c>
       <c r="Q6">
-        <v>1.294706966669532</v>
+        <v>0.409331816595</v>
       </c>
       <c r="R6">
-        <v>1.294706966669532</v>
+        <v>2.45599089957</v>
       </c>
       <c r="S6">
-        <v>0.09578408793226144</v>
+        <v>0.01354314769305639</v>
       </c>
       <c r="T6">
-        <v>0.09578408793226144</v>
+        <v>0.01016896625776428</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.78120065968861</v>
+        <v>1.931774666666667</v>
       </c>
       <c r="H7">
-        <v>0.78120065968861</v>
+        <v>5.795324</v>
       </c>
       <c r="I7">
-        <v>0.2414069131437379</v>
+        <v>0.3630798223483028</v>
       </c>
       <c r="J7">
-        <v>0.2414069131437379</v>
+        <v>0.3756446775032531</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.01028305160397</v>
+        <v>3.042935333333334</v>
       </c>
       <c r="N7">
-        <v>1.01028305160397</v>
+        <v>9.128806000000001</v>
       </c>
       <c r="O7">
-        <v>0.2418676857791798</v>
+        <v>0.5356624298519768</v>
       </c>
       <c r="P7">
-        <v>0.2418676857791798</v>
+        <v>0.5831288282815508</v>
       </c>
       <c r="Q7">
-        <v>0.7892337863852433</v>
+        <v>5.878265389238223</v>
       </c>
       <c r="R7">
-        <v>0.7892337863852433</v>
+        <v>52.90438850314401</v>
       </c>
       <c r="S7">
-        <v>0.05838853141317137</v>
+        <v>0.1944882198693159</v>
       </c>
       <c r="T7">
-        <v>0.05838853141317137</v>
+        <v>0.219049240642673</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.78120065968861</v>
+        <v>1.931774666666667</v>
       </c>
       <c r="H8">
-        <v>0.78120065968861</v>
+        <v>5.795324</v>
       </c>
       <c r="I8">
-        <v>0.2414069131437379</v>
+        <v>0.3630798223483028</v>
       </c>
       <c r="J8">
-        <v>0.2414069131437379</v>
+        <v>0.3756446775032531</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.155290287716967</v>
+        <v>1.067915666666667</v>
       </c>
       <c r="N8">
-        <v>0.155290287716967</v>
+        <v>3.203747</v>
       </c>
       <c r="O8">
-        <v>0.03717740533650878</v>
+        <v>0.1879902916822836</v>
       </c>
       <c r="P8">
-        <v>0.03717740533650878</v>
+        <v>0.2046485853922773</v>
       </c>
       <c r="Q8">
-        <v>0.1213128752077287</v>
+        <v>2.062972431003111</v>
       </c>
       <c r="R8">
-        <v>0.1213128752077287</v>
+        <v>18.566751879028</v>
       </c>
       <c r="S8">
-        <v>0.008974882660980113</v>
+        <v>0.06825548170720917</v>
       </c>
       <c r="T8">
-        <v>0.008974882660980113</v>
+        <v>0.07687515186117895</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,185 +959,185 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.78120065968861</v>
+        <v>1.931774666666667</v>
       </c>
       <c r="H9">
-        <v>0.78120065968861</v>
+        <v>5.795324</v>
       </c>
       <c r="I9">
-        <v>0.2414069131437379</v>
+        <v>0.3630798223483028</v>
       </c>
       <c r="J9">
-        <v>0.2414069131437379</v>
+        <v>0.3756446775032531</v>
       </c>
       <c r="K9">
         <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>1.35410421853342</v>
+        <v>0.02258333333333333</v>
       </c>
       <c r="N9">
-        <v>1.35410421853342</v>
+        <v>0.06775</v>
       </c>
       <c r="O9">
-        <v>0.3241804889436948</v>
+        <v>0.003975451950942043</v>
       </c>
       <c r="P9">
-        <v>0.3241804889436948</v>
+        <v>0.004327726771285868</v>
       </c>
       <c r="Q9">
-        <v>1.057827108805437</v>
+        <v>0.04362591122222222</v>
       </c>
       <c r="R9">
-        <v>1.057827108805437</v>
+        <v>0.392633201</v>
       </c>
       <c r="S9">
-        <v>0.07825941113732504</v>
+        <v>0.001443406388102251</v>
       </c>
       <c r="T9">
-        <v>0.07825941113732504</v>
+        <v>0.001625687527321875</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>25</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.16289936820731</v>
+        <v>1.931774666666667</v>
       </c>
       <c r="H10">
-        <v>1.16289936820731</v>
+        <v>5.795324</v>
       </c>
       <c r="I10">
-        <v>0.3593595874427843</v>
+        <v>0.3630798223483028</v>
       </c>
       <c r="J10">
-        <v>0.3593595874427843</v>
+        <v>0.3756446775032531</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.65732958697911</v>
+        <v>0.160044</v>
       </c>
       <c r="N10">
-        <v>1.65732958697911</v>
+        <v>0.480132</v>
       </c>
       <c r="O10">
-        <v>0.3967744199406166</v>
+        <v>0.02817330916767092</v>
       </c>
       <c r="P10">
-        <v>0.3967744199406166</v>
+        <v>0.03066981712400039</v>
       </c>
       <c r="Q10">
-        <v>1.927307529609289</v>
+        <v>0.309168944752</v>
       </c>
       <c r="R10">
-        <v>1.927307529609289</v>
+        <v>2.782520502768</v>
       </c>
       <c r="S10">
-        <v>0.1425846918577101</v>
+        <v>0.01022916008756177</v>
       </c>
       <c r="T10">
-        <v>0.1425846918577101</v>
+        <v>0.01152095356262887</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="D11" t="s">
-        <v>20</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.16289936820731</v>
+        <v>1.931774666666667</v>
       </c>
       <c r="H11">
-        <v>1.16289936820731</v>
+        <v>5.795324</v>
       </c>
       <c r="I11">
-        <v>0.3593595874427843</v>
+        <v>0.3630798223483028</v>
       </c>
       <c r="J11">
-        <v>0.3593595874427843</v>
+        <v>0.3756446775032531</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.01028305160397</v>
+        <v>1.3872175</v>
       </c>
       <c r="N11">
-        <v>1.01028305160397</v>
+        <v>2.774435</v>
       </c>
       <c r="O11">
-        <v>0.2418676857791798</v>
+        <v>0.2441985173471266</v>
       </c>
       <c r="P11">
-        <v>0.2418676857791798</v>
+        <v>0.1772250424308857</v>
       </c>
       <c r="Q11">
-        <v>1.17485752242081</v>
+        <v>2.679791623656667</v>
       </c>
       <c r="R11">
-        <v>1.17485752242081</v>
+        <v>16.07874974194</v>
       </c>
       <c r="S11">
-        <v>0.08691747177734706</v>
+        <v>0.08866355429611368</v>
       </c>
       <c r="T11">
-        <v>0.08691747177734706</v>
+        <v>0.06657364390945041</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,61 +1145,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.16289936820731</v>
+        <v>1.349899333333333</v>
       </c>
       <c r="H12">
-        <v>1.16289936820731</v>
+        <v>4.049697999999999</v>
       </c>
       <c r="I12">
-        <v>0.3593595874427843</v>
+        <v>0.2537155179596994</v>
       </c>
       <c r="J12">
-        <v>0.3593595874427843</v>
+        <v>0.2624956774108866</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.155290287716967</v>
+        <v>3.042935333333334</v>
       </c>
       <c r="N12">
-        <v>0.155290287716967</v>
+        <v>9.128806000000001</v>
       </c>
       <c r="O12">
-        <v>0.03717740533650878</v>
+        <v>0.5356624298519768</v>
       </c>
       <c r="P12">
-        <v>0.03717740533650878</v>
+        <v>0.5831288282815508</v>
       </c>
       <c r="Q12">
-        <v>0.1805869774747924</v>
+        <v>4.107656377843111</v>
       </c>
       <c r="R12">
-        <v>0.1805869774747924</v>
+        <v>36.96890740058799</v>
       </c>
       <c r="S12">
-        <v>0.01336005704392096</v>
+        <v>0.1359058708414455</v>
       </c>
       <c r="T12">
-        <v>0.01336005704392096</v>
+        <v>0.1530687967975822</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,61 +1207,867 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1.349899333333333</v>
+      </c>
+      <c r="H13">
+        <v>4.049697999999999</v>
+      </c>
+      <c r="I13">
+        <v>0.2537155179596994</v>
+      </c>
+      <c r="J13">
+        <v>0.2624956774108866</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>1.067915666666667</v>
+      </c>
+      <c r="N13">
+        <v>3.203747</v>
+      </c>
+      <c r="O13">
+        <v>0.1879902916822836</v>
+      </c>
+      <c r="P13">
+        <v>0.2046485853922773</v>
+      </c>
+      <c r="Q13">
+        <v>1.441578646489555</v>
+      </c>
+      <c r="R13">
+        <v>12.974207818406</v>
+      </c>
+      <c r="S13">
+        <v>0.04769605422556557</v>
+      </c>
+      <c r="T13">
+        <v>0.05371936905372549</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>1.349899333333333</v>
+      </c>
+      <c r="H14">
+        <v>4.049697999999999</v>
+      </c>
+      <c r="I14">
+        <v>0.2537155179596994</v>
+      </c>
+      <c r="J14">
+        <v>0.2624956774108866</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M14">
+        <v>0.02258333333333333</v>
+      </c>
+      <c r="N14">
+        <v>0.06775</v>
+      </c>
+      <c r="O14">
+        <v>0.003975451950942043</v>
+      </c>
+      <c r="P14">
+        <v>0.004327726771285868</v>
+      </c>
+      <c r="Q14">
+        <v>0.03048522661111111</v>
+      </c>
+      <c r="R14">
+        <v>0.2743670395</v>
+      </c>
+      <c r="S14">
+        <v>0.001008633850857158</v>
+      </c>
+      <c r="T14">
+        <v>0.001136009570477913</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>1.349899333333333</v>
+      </c>
+      <c r="H15">
+        <v>4.049697999999999</v>
+      </c>
+      <c r="I15">
+        <v>0.2537155179596994</v>
+      </c>
+      <c r="J15">
+        <v>0.2624956774108866</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>0.160044</v>
+      </c>
+      <c r="N15">
+        <v>0.480132</v>
+      </c>
+      <c r="O15">
+        <v>0.02817330916767092</v>
+      </c>
+      <c r="P15">
+        <v>0.03066981712400039</v>
+      </c>
+      <c r="Q15">
+        <v>0.216043288904</v>
+      </c>
+      <c r="R15">
+        <v>1.944389600136</v>
+      </c>
+      <c r="S15">
+        <v>0.007148005728114375</v>
+      </c>
+      <c r="T15">
+        <v>0.008050694422032491</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="D13" t="s">
-        <v>26</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>1.16289936820731</v>
-      </c>
-      <c r="H13">
-        <v>1.16289936820731</v>
-      </c>
-      <c r="I13">
-        <v>0.3593595874427843</v>
-      </c>
-      <c r="J13">
-        <v>0.3593595874427843</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>1.35410421853342</v>
-      </c>
-      <c r="N13">
-        <v>1.35410421853342</v>
-      </c>
-      <c r="O13">
-        <v>0.3241804889436948</v>
-      </c>
-      <c r="P13">
-        <v>0.3241804889436948</v>
-      </c>
-      <c r="Q13">
-        <v>1.574686940219368</v>
-      </c>
-      <c r="R13">
-        <v>1.574686940219368</v>
-      </c>
-      <c r="S13">
-        <v>0.1164973667638063</v>
-      </c>
-      <c r="T13">
-        <v>0.1164973667638063</v>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>1.349899333333333</v>
+      </c>
+      <c r="H16">
+        <v>4.049697999999999</v>
+      </c>
+      <c r="I16">
+        <v>0.2537155179596994</v>
+      </c>
+      <c r="J16">
+        <v>0.2624956774108866</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>1.3872175</v>
+      </c>
+      <c r="N16">
+        <v>2.774435</v>
+      </c>
+      <c r="O16">
+        <v>0.2441985173471266</v>
+      </c>
+      <c r="P16">
+        <v>0.1772250424308857</v>
+      </c>
+      <c r="Q16">
+        <v>1.872603978438333</v>
+      </c>
+      <c r="R16">
+        <v>11.23562387063</v>
+      </c>
+      <c r="S16">
+        <v>0.06195695331371687</v>
+      </c>
+      <c r="T16">
+        <v>0.04652080756706847</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>1.209880333333333</v>
+      </c>
+      <c r="H17">
+        <v>3.629641</v>
+      </c>
+      <c r="I17">
+        <v>0.227398745862719</v>
+      </c>
+      <c r="J17">
+        <v>0.235268178776128</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>3.042935333333334</v>
+      </c>
+      <c r="N17">
+        <v>9.128806000000001</v>
+      </c>
+      <c r="O17">
+        <v>0.5356624298519768</v>
+      </c>
+      <c r="P17">
+        <v>0.5831288282815508</v>
+      </c>
+      <c r="Q17">
+        <v>3.681587615405112</v>
+      </c>
+      <c r="R17">
+        <v>33.134288538646</v>
+      </c>
+      <c r="S17">
+        <v>0.1218089647541162</v>
+      </c>
+      <c r="T17">
+        <v>0.1371916574216579</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>1.209880333333333</v>
+      </c>
+      <c r="H18">
+        <v>3.629641</v>
+      </c>
+      <c r="I18">
+        <v>0.227398745862719</v>
+      </c>
+      <c r="J18">
+        <v>0.235268178776128</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>1.067915666666667</v>
+      </c>
+      <c r="N18">
+        <v>3.203747</v>
+      </c>
+      <c r="O18">
+        <v>0.1879902916822836</v>
+      </c>
+      <c r="P18">
+        <v>0.2046485853922773</v>
+      </c>
+      <c r="Q18">
+        <v>1.292050162758556</v>
+      </c>
+      <c r="R18">
+        <v>11.628451464827</v>
+      </c>
+      <c r="S18">
+        <v>0.04274875656291804</v>
+      </c>
+      <c r="T18">
+        <v>0.04814729997435199</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>1.209880333333333</v>
+      </c>
+      <c r="H19">
+        <v>3.629641</v>
+      </c>
+      <c r="I19">
+        <v>0.227398745862719</v>
+      </c>
+      <c r="J19">
+        <v>0.235268178776128</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M19">
+        <v>0.02258333333333333</v>
+      </c>
+      <c r="N19">
+        <v>0.06775</v>
+      </c>
+      <c r="O19">
+        <v>0.003975451950942043</v>
+      </c>
+      <c r="P19">
+        <v>0.004327726771285868</v>
+      </c>
+      <c r="Q19">
+        <v>0.02732313086111111</v>
+      </c>
+      <c r="R19">
+        <v>0.24590817775</v>
+      </c>
+      <c r="S19">
+        <v>0.0009040127878817202</v>
+      </c>
+      <c r="T19">
+        <v>0.001018176395721119</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>1.209880333333333</v>
+      </c>
+      <c r="H20">
+        <v>3.629641</v>
+      </c>
+      <c r="I20">
+        <v>0.227398745862719</v>
+      </c>
+      <c r="J20">
+        <v>0.235268178776128</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>0.160044</v>
+      </c>
+      <c r="N20">
+        <v>0.480132</v>
+      </c>
+      <c r="O20">
+        <v>0.02817330916767092</v>
+      </c>
+      <c r="P20">
+        <v>0.03066981712400039</v>
+      </c>
+      <c r="Q20">
+        <v>0.193634088068</v>
+      </c>
+      <c r="R20">
+        <v>1.742706792612</v>
+      </c>
+      <c r="S20">
+        <v>0.006406575171531011</v>
+      </c>
+      <c r="T20">
+        <v>0.007215632018160475</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>1.209880333333333</v>
+      </c>
+      <c r="H21">
+        <v>3.629641</v>
+      </c>
+      <c r="I21">
+        <v>0.227398745862719</v>
+      </c>
+      <c r="J21">
+        <v>0.235268178776128</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>1.3872175</v>
+      </c>
+      <c r="N21">
+        <v>2.774435</v>
+      </c>
+      <c r="O21">
+        <v>0.2441985173471266</v>
+      </c>
+      <c r="P21">
+        <v>0.1772250424308857</v>
+      </c>
+      <c r="Q21">
+        <v>1.678367171305833</v>
+      </c>
+      <c r="R21">
+        <v>10.070203027835</v>
+      </c>
+      <c r="S21">
+        <v>0.05553043658627203</v>
+      </c>
+      <c r="T21">
+        <v>0.04169541296623649</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>0.5</v>
+      </c>
+      <c r="G22">
+        <v>0.533895</v>
+      </c>
+      <c r="H22">
+        <v>1.06779</v>
+      </c>
+      <c r="I22">
+        <v>0.1003463318458021</v>
+      </c>
+      <c r="J22">
+        <v>0.06921263249323052</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>3.042935333333334</v>
+      </c>
+      <c r="N22">
+        <v>9.128806000000001</v>
+      </c>
+      <c r="O22">
+        <v>0.5356624298519768</v>
+      </c>
+      <c r="P22">
+        <v>0.5831288282815508</v>
+      </c>
+      <c r="Q22">
+        <v>1.62460795979</v>
+      </c>
+      <c r="R22">
+        <v>9.747647758740001</v>
+      </c>
+      <c r="S22">
+        <v>0.05375175994325517</v>
+      </c>
+      <c r="T22">
+        <v>0.0403598812880591</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>0.5</v>
+      </c>
+      <c r="G23">
+        <v>0.533895</v>
+      </c>
+      <c r="H23">
+        <v>1.06779</v>
+      </c>
+      <c r="I23">
+        <v>0.1003463318458021</v>
+      </c>
+      <c r="J23">
+        <v>0.06921263249323052</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>1.067915666666667</v>
+      </c>
+      <c r="N23">
+        <v>3.203747</v>
+      </c>
+      <c r="O23">
+        <v>0.1879902916822836</v>
+      </c>
+      <c r="P23">
+        <v>0.2046485853922773</v>
+      </c>
+      <c r="Q23">
+        <v>0.5701548348550001</v>
+      </c>
+      <c r="R23">
+        <v>3.42092900913</v>
+      </c>
+      <c r="S23">
+        <v>0.01886413619293957</v>
+      </c>
+      <c r="T23">
+        <v>0.01416426733101519</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>0.5</v>
+      </c>
+      <c r="G24">
+        <v>0.533895</v>
+      </c>
+      <c r="H24">
+        <v>1.06779</v>
+      </c>
+      <c r="I24">
+        <v>0.1003463318458021</v>
+      </c>
+      <c r="J24">
+        <v>0.06921263249323052</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M24">
+        <v>0.02258333333333333</v>
+      </c>
+      <c r="N24">
+        <v>0.06775</v>
+      </c>
+      <c r="O24">
+        <v>0.003975451950942043</v>
+      </c>
+      <c r="P24">
+        <v>0.004327726771285868</v>
+      </c>
+      <c r="Q24">
+        <v>0.01205712875</v>
+      </c>
+      <c r="R24">
+        <v>0.0723427725</v>
+      </c>
+      <c r="S24">
+        <v>0.0003989220207062718</v>
+      </c>
+      <c r="T24">
+        <v>0.0002995333625521239</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>0.5</v>
+      </c>
+      <c r="G25">
+        <v>0.533895</v>
+      </c>
+      <c r="H25">
+        <v>1.06779</v>
+      </c>
+      <c r="I25">
+        <v>0.1003463318458021</v>
+      </c>
+      <c r="J25">
+        <v>0.06921263249323052</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>0.160044</v>
+      </c>
+      <c r="N25">
+        <v>0.480132</v>
+      </c>
+      <c r="O25">
+        <v>0.02817330916767092</v>
+      </c>
+      <c r="P25">
+        <v>0.03066981712400039</v>
+      </c>
+      <c r="Q25">
+        <v>0.08544669137999999</v>
+      </c>
+      <c r="R25">
+        <v>0.51268014828</v>
+      </c>
+      <c r="S25">
+        <v>0.002827088230933486</v>
+      </c>
+      <c r="T25">
+        <v>0.002122738781238027</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>0.5</v>
+      </c>
+      <c r="G26">
+        <v>0.533895</v>
+      </c>
+      <c r="H26">
+        <v>1.06779</v>
+      </c>
+      <c r="I26">
+        <v>0.1003463318458021</v>
+      </c>
+      <c r="J26">
+        <v>0.06921263249323052</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>1.3872175</v>
+      </c>
+      <c r="N26">
+        <v>2.774435</v>
+      </c>
+      <c r="O26">
+        <v>0.2441985173471266</v>
+      </c>
+      <c r="P26">
+        <v>0.1772250424308857</v>
+      </c>
+      <c r="Q26">
+        <v>0.7406284871625</v>
+      </c>
+      <c r="R26">
+        <v>2.96251394865</v>
+      </c>
+      <c r="S26">
+        <v>0.02450442545796764</v>
+      </c>
+      <c r="T26">
+        <v>0.01226621173036608</v>
       </c>
     </row>
   </sheetData>
